--- a/mysql_upload_05/data/tiktok_data_language_summary.xlsx
+++ b/mysql_upload_05/data/tiktok_data_language_summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syb/Desktop/comments_analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syb/Desktop/mysql_upload_05/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6D7810-DE8A-6A4A-B705-4B99260A87BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB79C943-4F42-844F-8CC7-AA013AF95470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="18740" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23180" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>korean</t>
   </si>
   <si>
-    <t>foreign</t>
-  </si>
-  <si>
     <t>other</t>
   </si>
   <si>
@@ -355,6 +352,10 @@
   </si>
   <si>
     <t>엔조이커플</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreign_lang</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -436,7 +437,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -744,7 +745,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30:K30"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -763,33 +764,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>4542</v>
@@ -813,10 +814,10 @@
         <v>4.16</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K2">
         <v>21</v>
@@ -824,7 +825,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>1070</v>
@@ -848,10 +849,10 @@
         <v>4.67</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K3">
         <v>29</v>
@@ -859,7 +860,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>1988</v>
@@ -883,10 +884,10 @@
         <v>5.13</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K4">
         <v>30</v>
@@ -894,7 +895,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>118</v>
@@ -918,10 +919,10 @@
         <v>0.85</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -929,7 +930,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>1424</v>
@@ -953,10 +954,10 @@
         <v>5.55</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K6">
         <v>26</v>
@@ -964,7 +965,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>861</v>
@@ -988,10 +989,10 @@
         <v>15.8</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K7">
         <v>26</v>
@@ -999,7 +1000,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>2380</v>
@@ -1023,10 +1024,10 @@
         <v>5.42</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K8">
         <v>6</v>
@@ -1034,7 +1035,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>1494</v>
@@ -1058,10 +1059,10 @@
         <v>6.89</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K9">
         <v>8</v>
@@ -1069,7 +1070,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>385</v>
@@ -1093,10 +1094,10 @@
         <v>11.17</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K10">
         <v>18</v>
@@ -1104,7 +1105,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>816</v>
@@ -1128,10 +1129,10 @@
         <v>17.77</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K11">
         <v>16</v>
@@ -1139,7 +1140,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>385</v>
@@ -1163,10 +1164,10 @@
         <v>17.66</v>
       </c>
       <c r="I12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K12">
         <v>20</v>
@@ -1174,7 +1175,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>2913</v>
@@ -1198,10 +1199,10 @@
         <v>11.23</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1209,7 +1210,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14">
         <v>1000</v>
@@ -1233,10 +1234,10 @@
         <v>6.7</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K14">
         <v>28</v>
@@ -1244,7 +1245,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>165</v>
@@ -1268,10 +1269,10 @@
         <v>26.06</v>
       </c>
       <c r="I15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K15">
         <v>11</v>
@@ -1279,7 +1280,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16">
         <v>18</v>
@@ -1303,10 +1304,10 @@
         <v>27.78</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K16">
         <v>15</v>
@@ -1314,7 +1315,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>488</v>
@@ -1338,10 +1339,10 @@
         <v>20.9</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K17">
         <v>9</v>
@@ -1349,7 +1350,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>437</v>
@@ -1373,10 +1374,10 @@
         <v>27.23</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K18">
         <v>28</v>
@@ -1384,7 +1385,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19">
         <v>829</v>
@@ -1408,10 +1409,10 @@
         <v>15.92</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1419,7 +1420,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>1134</v>
@@ -1443,10 +1444,10 @@
         <v>28.48</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K20">
         <v>24</v>
@@ -1454,7 +1455,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21">
         <v>605</v>
@@ -1478,10 +1479,10 @@
         <v>29.26</v>
       </c>
       <c r="I21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K21">
         <v>22</v>
@@ -1489,7 +1490,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22">
         <v>1403</v>
@@ -1513,10 +1514,10 @@
         <v>30.01</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K22">
         <v>7</v>
@@ -1524,7 +1525,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23">
         <v>101</v>
@@ -1548,10 +1549,10 @@
         <v>12.87</v>
       </c>
       <c r="I23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K23">
         <v>17</v>
@@ -1559,7 +1560,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -1583,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K24">
         <v>12</v>
@@ -1594,7 +1595,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25">
         <v>539</v>
@@ -1618,10 +1619,10 @@
         <v>41.93</v>
       </c>
       <c r="I25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K25">
         <v>23</v>
@@ -1629,7 +1630,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26">
         <v>17</v>
@@ -1653,10 +1654,10 @@
         <v>5.88</v>
       </c>
       <c r="I26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K26">
         <v>19</v>
@@ -1664,7 +1665,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27">
         <v>130</v>
@@ -1688,10 +1689,10 @@
         <v>13.85</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K27">
         <v>13</v>
@@ -1699,7 +1700,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28">
         <v>1289</v>
@@ -1723,10 +1724,10 @@
         <v>1.47</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K28">
         <v>5</v>
@@ -1734,7 +1735,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29">
         <v>7787</v>
@@ -1758,10 +1759,10 @@
         <v>26.22</v>
       </c>
       <c r="I29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -1769,7 +1770,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30">
         <v>4695</v>
@@ -1793,10 +1794,10 @@
         <v>41.04</v>
       </c>
       <c r="I30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K30">
         <v>25</v>
@@ -1804,7 +1805,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31">
         <v>10</v>
@@ -1828,10 +1829,10 @@
         <v>70</v>
       </c>
       <c r="I31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K31">
         <v>14</v>
